--- a/Project Data for Analysis.xlsx
+++ b/Project Data for Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meenakshi Ganesh\Downloads\7-JP-Morgan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FFD2D5-AA6A-4854-A608-DFC709973FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C5162E-0270-41BF-8438-B2E5FBD877EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -315,7 +315,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -845,7 +845,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
@@ -861,16 +861,12 @@
     <xf numFmtId="9" fontId="0" fillId="33" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="16" fillId="33" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="33" borderId="10" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="16" fillId="33" borderId="10" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="10" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="33" borderId="10" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="33" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -933,70 +929,30 @@
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -1058,48 +1014,7 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <border>
@@ -1275,11 +1190,92 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -3888,6 +3884,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="719172712"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -5608,8 +5605,8 @@
       <xdr:rowOff>136072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1161142</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1616364</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>148772</xdr:rowOff>
     </xdr:to>
@@ -5641,13 +5638,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>712107</xdr:colOff>
+      <xdr:colOff>712106</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>7257</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>149679</xdr:colOff>
+      <xdr:colOff>1697181</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>19957</xdr:rowOff>
     </xdr:to>
@@ -7692,200 +7689,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CDB367E4-0766-4D5B-A422-77774E0A73AE}" name="PivotTable15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="31">
-  <location ref="A43:C50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="32">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="14">
-        <item x="9"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="12"/>
-        <item x="3"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Total Budgetted Cost" fld="24" baseField="0" baseItem="0"/>
-    <dataField name="Sum of total Actual cost" fld="31" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="19">
-    <format dxfId="12">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="13">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="14">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="15">
-      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="16">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="17">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="18">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="19">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="20">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="11">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="10">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="7">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="4">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="3">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA652E25-C084-409F-8F69-0328B15DE60A}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="31">
   <location ref="A24:C31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="32">
@@ -7987,35 +7790,35 @@
     <dataField name="Sum of total Actual cost" fld="31" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="11">
-    <format dxfId="44">
+    <format dxfId="10">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="8">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="7">
       <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="6">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="5">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -8025,10 +7828,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="1">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -8071,7 +7874,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{941ECD56-D60C-4705-85E1-A38233CAFB49}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="25">
   <location ref="A3:C18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="32">
@@ -8188,35 +7991,35 @@
     <dataField name="Sum of Total Actual hours" fld="17" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="15">
-    <format dxfId="35">
+    <format dxfId="25">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="24">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="23">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="22">
       <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="21">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="20">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -8226,23 +8029,23 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="15">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -8252,7 +8055,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -8319,6 +8122,200 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CDB367E4-0766-4D5B-A422-77774E0A73AE}" name="PivotTable15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="31">
+  <location ref="A43:C50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="32">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="14">
+        <item x="9"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Total Budgetted Cost" fld="24" baseField="0" baseItem="0"/>
+    <dataField name="Sum of total Actual cost" fld="31" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="19">
+    <format dxfId="44">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="43">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="42">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="41">
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="40">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="39">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="38">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="37">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="36">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="35">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="34">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="33">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="32">
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="31">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="30">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="29">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="28">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="27">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="26">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -15868,11 +15865,11 @@
         <v>69</v>
       </c>
       <c r="C43" s="6"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="14"/>
+      <c r="F43" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="14"/>
     </row>
     <row r="44" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
@@ -15885,19 +15882,19 @@
         <v>77</v>
       </c>
       <c r="D44" s="5"/>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G44" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="H44" s="18" t="s">
+      <c r="H44" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I44" s="19" t="s">
+      <c r="I44" s="17" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15905,27 +15902,27 @@
       <c r="A45" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="6">
         <v>153600</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="6">
         <v>168150</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F45" s="13">
         <v>153600</v>
       </c>
-      <c r="G45" s="16">
+      <c r="G45" s="13">
         <v>168150</v>
       </c>
-      <c r="H45" s="14">
-        <f>G45-F45</f>
+      <c r="H45" s="13">
+        <f t="shared" ref="H45:H50" si="4">G45-F45</f>
         <v>14550</v>
       </c>
-      <c r="I45" s="17">
-        <f>H45/F45</f>
+      <c r="I45" s="15">
+        <f t="shared" ref="I45:I50" si="5">H45/F45</f>
         <v>9.47265625E-2</v>
       </c>
     </row>
@@ -15933,27 +15930,27 @@
       <c r="A46" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="6">
         <v>131100</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="6">
         <v>135600</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="13">
         <v>131100</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G46" s="13">
         <v>135600</v>
       </c>
-      <c r="H46" s="14">
-        <f>G46-F46</f>
+      <c r="H46" s="13">
+        <f t="shared" si="4"/>
         <v>4500</v>
       </c>
-      <c r="I46" s="17">
-        <f>H46/F46</f>
+      <c r="I46" s="15">
+        <f t="shared" si="5"/>
         <v>3.4324942791762014E-2</v>
       </c>
     </row>
@@ -15961,27 +15958,27 @@
       <c r="A47" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="6">
         <v>216000</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="6">
         <v>243300</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F47" s="13">
         <v>216000</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G47" s="13">
         <v>243300</v>
       </c>
-      <c r="H47" s="14">
-        <f>G47-F47</f>
+      <c r="H47" s="13">
+        <f t="shared" si="4"/>
         <v>27300</v>
       </c>
-      <c r="I47" s="17">
-        <f>H47/F47</f>
+      <c r="I47" s="15">
+        <f t="shared" si="5"/>
         <v>0.12638888888888888</v>
       </c>
     </row>
@@ -15989,27 +15986,27 @@
       <c r="A48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="6">
         <v>291000</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="6">
         <v>271500</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F48" s="13">
         <v>291000</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G48" s="13">
         <v>271500</v>
       </c>
-      <c r="H48" s="14">
-        <f>G48-F48</f>
+      <c r="H48" s="13">
+        <f t="shared" si="4"/>
         <v>-19500</v>
       </c>
-      <c r="I48" s="17">
-        <f>H48/F48</f>
+      <c r="I48" s="15">
+        <f t="shared" si="5"/>
         <v>-6.7010309278350513E-2</v>
       </c>
     </row>
@@ -16017,27 +16014,27 @@
       <c r="A49" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="6">
         <v>174480</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="6">
         <v>138240</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F49" s="13">
         <v>174480</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G49" s="13">
         <v>138240</v>
       </c>
-      <c r="H49" s="14">
-        <f>G49-F49</f>
+      <c r="H49" s="13">
+        <f t="shared" si="4"/>
         <v>-36240</v>
       </c>
-      <c r="I49" s="17">
-        <f>H49/F49</f>
+      <c r="I49" s="15">
+        <f t="shared" si="5"/>
         <v>-0.2077028885832187</v>
       </c>
     </row>
@@ -16045,27 +16042,27 @@
       <c r="A50" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="6">
         <v>966180</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="6">
         <v>956790</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="13">
         <v>966180</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G50" s="13">
         <v>956790</v>
       </c>
-      <c r="H50" s="14">
-        <f>G50-F50</f>
+      <c r="H50" s="13">
+        <f t="shared" si="4"/>
         <v>-9390</v>
       </c>
-      <c r="I50" s="17">
-        <f>H50/F50</f>
+      <c r="I50" s="15">
+        <f t="shared" si="5"/>
         <v>-9.718685959138048E-3</v>
       </c>
     </row>
